--- a/biology/Zoologie/Canadapsis_perfecta/Canadapsis_perfecta.xlsx
+++ b/biology/Zoologie/Canadapsis_perfecta/Canadapsis_perfecta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadapsis perfecta (ou Canadaspis perfecta) est une espèce éteinte de crustacés  datant du Cambrien moyen (il y a environ 505 Ma (millions d'années). Il a été découvert dans la formation géologique des schistes de Burgess où il est très bien représenté (4 500 spécimens). Canadapsis perfecta est considéré comme le premier ancêtre des crustacés (actuellement, les crabes et les langoustines).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La créature avait une « queue » segmentée, un corps partiellement couvert par une coquille chitineuse (carapace), et un certain nombre de pattes et d’ailerons. Benthique, Canadaspis perfecta se déplaçait principalement par la marche et creusait dans la boue à la recherche de sa nourriture. Une fois la nourriture obtenue, il utilisait sa mâchoire inférieure pour capturer de plus grandes particules.
 </t>
